--- a/SchedulingData/static5/pso/scheduling1_5.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_5.xlsx
@@ -462,287 +462,287 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80.2</v>
+        <v>68.7</v>
       </c>
       <c r="E2" t="n">
-        <v>24.66</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.48</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>27.052</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.2</v>
+        <v>54.64</v>
       </c>
       <c r="E4" t="n">
-        <v>26.64</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>26.52</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80.2</v>
+        <v>68.7</v>
       </c>
       <c r="D6" t="n">
-        <v>137.26</v>
+        <v>158.88</v>
       </c>
       <c r="E6" t="n">
-        <v>20.084</v>
+        <v>24.812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.26</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>179.76</v>
+        <v>117.68</v>
       </c>
       <c r="E7" t="n">
-        <v>16.964</v>
+        <v>21.052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>53.74</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9</v>
+        <v>27.316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>138.84</v>
+        <v>138.2</v>
       </c>
       <c r="E9" t="n">
-        <v>22.376</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>41.8</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.12</v>
+        <v>65.72</v>
       </c>
       <c r="E10" t="n">
-        <v>22.768</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>120.12</v>
+        <v>54.64</v>
       </c>
       <c r="D11" t="n">
-        <v>168</v>
+        <v>115.56</v>
       </c>
       <c r="E11" t="n">
-        <v>19.6</v>
+        <v>21.264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.48</v>
+        <v>158.88</v>
       </c>
       <c r="D12" t="n">
-        <v>102.88</v>
+        <v>243.58</v>
       </c>
       <c r="E12" t="n">
-        <v>23.532</v>
+        <v>21.432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>138.2</v>
       </c>
       <c r="D13" t="n">
-        <v>124.96</v>
+        <v>215.12</v>
       </c>
       <c r="E13" t="n">
-        <v>20.844</v>
+        <v>20.368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>65.72</v>
       </c>
       <c r="D14" t="n">
-        <v>55.28</v>
+        <v>114.6</v>
       </c>
       <c r="E14" t="n">
-        <v>26.152</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>102.88</v>
+        <v>243.58</v>
       </c>
       <c r="D15" t="n">
-        <v>156.18</v>
+        <v>298.58</v>
       </c>
       <c r="E15" t="n">
-        <v>21.292</v>
+        <v>18.052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138.84</v>
+        <v>53.74</v>
       </c>
       <c r="D16" t="n">
-        <v>189.62</v>
+        <v>105.24</v>
       </c>
       <c r="E16" t="n">
-        <v>19.408</v>
+        <v>23.796</v>
       </c>
     </row>
     <row r="17">
@@ -751,93 +751,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>168</v>
+        <v>105.24</v>
       </c>
       <c r="D17" t="n">
-        <v>248.52</v>
+        <v>170.04</v>
       </c>
       <c r="E17" t="n">
-        <v>16.168</v>
+        <v>18.456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>248.52</v>
+        <v>117.68</v>
       </c>
       <c r="D18" t="n">
-        <v>322.52</v>
+        <v>184.74</v>
       </c>
       <c r="E18" t="n">
-        <v>12.868</v>
+        <v>16.476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>55.28</v>
+        <v>115.56</v>
       </c>
       <c r="D19" t="n">
-        <v>123.68</v>
+        <v>171.28</v>
       </c>
       <c r="E19" t="n">
-        <v>22.412</v>
+        <v>17.832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>179.76</v>
+        <v>114.6</v>
       </c>
       <c r="D20" t="n">
-        <v>245.66</v>
+        <v>183.92</v>
       </c>
       <c r="E20" t="n">
-        <v>13.484</v>
+        <v>19.528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>245.66</v>
+        <v>184.74</v>
       </c>
       <c r="D21" t="n">
-        <v>340.66</v>
+        <v>241.94</v>
       </c>
       <c r="E21" t="n">
-        <v>10.064</v>
+        <v>12.876</v>
       </c>
     </row>
     <row r="22">
@@ -846,93 +846,93 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.62</v>
+        <v>298.58</v>
       </c>
       <c r="D22" t="n">
-        <v>245.22</v>
+        <v>353.28</v>
       </c>
       <c r="E22" t="n">
-        <v>14.988</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>123.68</v>
+        <v>183.92</v>
       </c>
       <c r="D23" t="n">
-        <v>183.78</v>
+        <v>239.42</v>
       </c>
       <c r="E23" t="n">
-        <v>19.032</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>156.18</v>
+        <v>239.42</v>
       </c>
       <c r="D24" t="n">
-        <v>210.04</v>
+        <v>320.68</v>
       </c>
       <c r="E24" t="n">
-        <v>18.016</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>183.78</v>
+        <v>171.28</v>
       </c>
       <c r="D25" t="n">
-        <v>239.1</v>
+        <v>246.78</v>
       </c>
       <c r="E25" t="n">
-        <v>16.12</v>
+        <v>14.412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>340.66</v>
+        <v>170.04</v>
       </c>
       <c r="D26" t="n">
-        <v>406.68</v>
+        <v>222.92</v>
       </c>
       <c r="E26" t="n">
-        <v>5.592</v>
+        <v>15.288</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>239.1</v>
+        <v>241.94</v>
       </c>
       <c r="D27" t="n">
-        <v>298.78</v>
+        <v>284.2</v>
       </c>
       <c r="E27" t="n">
-        <v>12.272</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>245.22</v>
+        <v>353.28</v>
       </c>
       <c r="D28" t="n">
-        <v>308.26</v>
+        <v>403.04</v>
       </c>
       <c r="E28" t="n">
-        <v>12.304</v>
+        <v>11.836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>298.78</v>
+        <v>320.68</v>
       </c>
       <c r="D29" t="n">
-        <v>355.6</v>
+        <v>361.88</v>
       </c>
       <c r="E29" t="n">
-        <v>9.68</v>
+        <v>9.071999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>355.6</v>
+        <v>222.92</v>
       </c>
       <c r="D30" t="n">
-        <v>419.68</v>
+        <v>276.64</v>
       </c>
       <c r="E30" t="n">
-        <v>7.392</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>210.04</v>
+        <v>215.12</v>
       </c>
       <c r="D31" t="n">
-        <v>252.2</v>
+        <v>278.04</v>
       </c>
       <c r="E31" t="n">
-        <v>15.42</v>
+        <v>17.196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>124.96</v>
+        <v>276.64</v>
       </c>
       <c r="D32" t="n">
-        <v>190.08</v>
+        <v>344.14</v>
       </c>
       <c r="E32" t="n">
-        <v>16.972</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>190.08</v>
+        <v>361.88</v>
       </c>
       <c r="D33" t="n">
-        <v>228.2</v>
+        <v>441.06</v>
       </c>
       <c r="E33" t="n">
-        <v>13.8</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>419.68</v>
+        <v>246.78</v>
       </c>
       <c r="D34" t="n">
-        <v>476.98</v>
+        <v>302.66</v>
       </c>
       <c r="E34" t="n">
-        <v>3.792</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="35">
@@ -1093,131 +1093,131 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>322.52</v>
+        <v>344.14</v>
       </c>
       <c r="D35" t="n">
-        <v>361.54</v>
+        <v>388.2</v>
       </c>
       <c r="E35" t="n">
-        <v>10.096</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>361.54</v>
+        <v>302.66</v>
       </c>
       <c r="D36" t="n">
-        <v>399.24</v>
+        <v>373.46</v>
       </c>
       <c r="E36" t="n">
-        <v>7.456</v>
+        <v>7.964</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>252.2</v>
+        <v>284.2</v>
       </c>
       <c r="D37" t="n">
-        <v>317.7</v>
+        <v>338.22</v>
       </c>
       <c r="E37" t="n">
-        <v>12.5</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>308.26</v>
+        <v>278.04</v>
       </c>
       <c r="D38" t="n">
-        <v>368.06</v>
+        <v>358.34</v>
       </c>
       <c r="E38" t="n">
-        <v>8.923999999999999</v>
+        <v>12.776</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>399.24</v>
+        <v>373.46</v>
       </c>
       <c r="D39" t="n">
-        <v>461.74</v>
+        <v>443.78</v>
       </c>
       <c r="E39" t="n">
-        <v>4.336</v>
+        <v>5.052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>228.2</v>
+        <v>338.22</v>
       </c>
       <c r="D40" t="n">
-        <v>307.12</v>
+        <v>380.72</v>
       </c>
       <c r="E40" t="n">
-        <v>9.488</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>368.06</v>
+        <v>358.34</v>
       </c>
       <c r="D41" t="n">
-        <v>417.92</v>
+        <v>405.84</v>
       </c>
       <c r="E41" t="n">
-        <v>6.068</v>
+        <v>10.136</v>
       </c>
     </row>
   </sheetData>
